--- a/2min-Answers.xlsx
+++ b/2min-Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairmutebi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/ExperimentInCognitiveScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7F6D9-FF8A-8E45-82A1-0BF6F2FC927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F9C6B-169C-864D-A454-C0834BB38AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="760" windowWidth="16100" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="1620" windowWidth="23820" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
   <si>
     <t>User Name</t>
   </si>
@@ -265,20 +265,116 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Which of the following is equivalent to (Time)</t>
-  </si>
-  <si>
-    <t>What are characteristics of polynomial functions and other nonlinear graphs? (Time)</t>
-  </si>
-  <si>
-    <t>The collapse of Communist rule throughout Eastern Europe occurred peacefully in all of the following countries EXCEPT (Time)</t>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>Polynomial functions are linear and have only one x-intercept.</t>
+  </si>
+  <si>
+    <t>Rational functions have their input in the numerator of an expression.</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>00:01:16</t>
+  </si>
+  <si>
+    <t>00:01:59</t>
+  </si>
+  <si>
+    <t>00:00:33</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>00:01:00</t>
+  </si>
+  <si>
+    <t>00:01:55</t>
+  </si>
+  <si>
+    <t>00:01:14</t>
+  </si>
+  <si>
+    <t>00:01:50</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>00:00:55</t>
+  </si>
+  <si>
+    <t>00:01:25</t>
+  </si>
+  <si>
+    <t>00:01:39</t>
+  </si>
+  <si>
+    <t>00:01:33</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:39</t>
+  </si>
+  <si>
+    <t>00:01:31</t>
+  </si>
+  <si>
+    <t>0:6:4</t>
+  </si>
+  <si>
+    <t>0:1:57</t>
+  </si>
+  <si>
+    <t>0:5:54</t>
+  </si>
+  <si>
+    <t>0:4:24</t>
+  </si>
+  <si>
+    <t>0:3:20</t>
+  </si>
+  <si>
+    <t>0:4:32</t>
+  </si>
+  <si>
+    <t>0:6:33</t>
+  </si>
+  <si>
+    <t>0:4:20</t>
+  </si>
+  <si>
+    <t>0:4:51</t>
+  </si>
+  <si>
+    <t>Taken Time (2)</t>
+  </si>
+  <si>
+    <t>Score(%) (2)</t>
+  </si>
+  <si>
+    <t>Time 3</t>
+  </si>
+  <si>
+    <t>Time 4</t>
+  </si>
+  <si>
+    <t>Time 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,6 +411,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -679,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,19 +791,23 @@
     <col min="1" max="5" width="20" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="29.6640625" customWidth="1"/>
     <col min="13" max="13" width="45.33203125" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" customWidth="1"/>
-    <col min="15" max="15" width="29.83203125" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="25.5" customWidth="1"/>
-    <col min="19" max="19" width="44.5" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" customWidth="1"/>
+    <col min="14" max="15" width="32.1640625" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="29.83203125" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="25.5" customWidth="1"/>
+    <col min="21" max="21" width="44.5" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="28" max="28" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +833,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -740,49 +845,55 @@
         <v>42</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -822,34 +933,48 @@
       <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" t="s">
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2">
+        <v>33.3333333</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -892,8 +1017,47 @@
       <c r="N3" t="s">
         <v>15</v>
       </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3">
+        <v>33.3333333</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -933,8 +1097,50 @@
       <c r="N4" t="s">
         <v>15</v>
       </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4">
+        <v>33.3333333</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -978,36 +1184,49 @@
         <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1050,8 +1269,50 @@
       <c r="N6" t="s">
         <v>17</v>
       </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1094,38 +1355,50 @@
       <c r="N7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1169,34 +1442,49 @@
         <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
         <v>74</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
         <v>15</v>
       </c>
-      <c r="W8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1240,36 +1528,50 @@
         <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
         <v>72</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" t="s">
-        <v>25</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s">
         <v>74</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W9" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="3"/>
+      <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1313,35 +1615,49 @@
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" t="s">
+      <c r="S10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" t="s">
         <v>13</v>
       </c>
-      <c r="S10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" t="s">
         <v>74</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
         <v>13</v>
       </c>
-      <c r="W10" t="s">
-        <v>25</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" t="s">
         <v>77</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1385,41 +1701,55 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
         <v>74</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W11" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="s">
         <v>77</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1432,6 +1762,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
